--- a/Results_Evaluated_Models.xlsx
+++ b/Results_Evaluated_Models.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6933333333333334</v>
+        <v>0.7266666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.64</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6066666666666667</v>
+        <v>0.62</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6933333333333334</v>
+        <v>0.6733333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.82</v>
+        <v>0.8266666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8866666666666667</v>
+        <v>0.86</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72</v>
+        <v>0.6733333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8066666666666666</v>
+        <v>0.7933333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7066666666666667</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6866666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6866666666666666</v>
+        <v>0.62</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7066666666666667</v>
+        <v>0.6533333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.74</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="C5" t="n">
         <v>0.7066666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.74</v>
+        <v>0.6866666666666666</v>
       </c>
       <c r="E5" t="n">
         <v>0.74</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2143</v>
+        <v>0.21394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1664133333333333</v>
+        <v>0.1677333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1360666666666667</v>
+        <v>0.13804</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2138733333333333</v>
+        <v>0.21416</v>
       </c>
     </row>
   </sheetData>

--- a/Results_Evaluated_Models.xlsx
+++ b/Results_Evaluated_Models.xlsx
@@ -2,28 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluated Models" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Alpha" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +49,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -52,18 +79,54 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -134,6 +197,551 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Skillnad mellan train och test</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </txPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Alpha!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Leadership</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>Alpha!$A$2:$A$5</f>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>DecisionTree</v>
+                </pt>
+                <pt idx="1">
+                  <v>KNeighborsClassifier</v>
+                </pt>
+                <pt idx="2">
+                  <v>LinearSVC</v>
+                </pt>
+                <pt idx="3">
+                  <v>RandomForestClassifier</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Alpha!$B$2:$B$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>0.3866666666666667</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1433333333333333</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.12</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.25</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Alpha!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Social</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>Alpha!$A$2:$A$5</f>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>DecisionTree</v>
+                </pt>
+                <pt idx="1">
+                  <v>KNeighborsClassifier</v>
+                </pt>
+                <pt idx="2">
+                  <v>LinearSVC</v>
+                </pt>
+                <pt idx="3">
+                  <v>RandomForestClassifier</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Alpha!$C$2:$C$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>0.3266666666666667</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1433333333333333</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.105</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1666666666666666</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>Alpha!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Personal</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>Alpha!$A$2:$A$5</f>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>DecisionTree</v>
+                </pt>
+                <pt idx="1">
+                  <v>KNeighborsClassifier</v>
+                </pt>
+                <pt idx="2">
+                  <v>LinearSVC</v>
+                </pt>
+                <pt idx="3">
+                  <v>RandomForestClassifier</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Alpha!$D$2:$D$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>0.4066666666666666</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.2116666666666667</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.2183333333333334</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1283333333333334</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>Alpha!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Intellectual</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>Alpha!$A$2:$A$5</f>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>DecisionTree</v>
+                </pt>
+                <pt idx="1">
+                  <v>KNeighborsClassifier</v>
+                </pt>
+                <pt idx="2">
+                  <v>LinearSVC</v>
+                </pt>
+                <pt idx="3">
+                  <v>RandomForestClassifier</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Alpha!$E$2:$E$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>0.32</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.2066666666666667</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1116666666666666</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1133333333333334</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="866997519"/>
+        <axId val="866996559"/>
+      </barChart>
+      <catAx>
+        <axId val="866997519"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="866996559"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="866996559"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </txPr>
+        <crossAx val="866997519"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>38099</colOff>
+      <row>6</row>
+      <rowOff>4762</rowOff>
+    </from>
+    <to>
+      <col>10</col>
+      <colOff>114299</colOff>
+      <row>30</row>
+      <rowOff>171450</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,27 +1042,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Leadership</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Social</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Intellectual</t>
         </is>
@@ -463,99 +1071,358 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KNeighborsClassifier</t>
+          <t>DecisionTree</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7266666666666667</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7066666666666667</v>
+        <v>0.68</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6733333333333333</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LinearSVC</t>
+          <t>DecisionTree_train</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8266666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6733333333333333</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7933333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DecisionTree</t>
+          <t>KNeighborsClassifier</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6266666666666667</v>
+        <v>0.7266666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6866666666666666</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="D4" t="n">
         <v>0.62</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6533333333333333</v>
+        <v>0.6733333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RandomForestClassifier</t>
+          <t>KNeighborsClassifier_train</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7066666666666667</v>
+        <v>0.87</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7066666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6866666666666666</v>
+        <v>0.8316666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>LinearSVC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8133333333333334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6866666666666666</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7933333333333333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LinearSVC_train</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.885</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Random</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.21394</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1677333333333333</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13804</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.21416</v>
+      <c r="B8" t="n">
+        <v>0.2175266666666667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.16554</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.13658</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2159333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2175266666666667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.16554</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.13658</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2159333333333333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier_train</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12" bestFit="1" customWidth="1" min="2" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Intellectual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>ABS('Evaluated Models'!B2-'Evaluated Models'!B3)</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>ABS('Evaluated Models'!C2-'Evaluated Models'!C3)</f>
+        <v/>
+      </c>
+      <c r="D2">
+        <f>ABS('Evaluated Models'!D2-'Evaluated Models'!D3)</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>ABS('Evaluated Models'!E2-'Evaluated Models'!E3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>ABS('Evaluated Models'!B4-'Evaluated Models'!B5)</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>ABS('Evaluated Models'!C4-'Evaluated Models'!C5)</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>ABS('Evaluated Models'!D4-'Evaluated Models'!D5)</f>
+        <v/>
+      </c>
+      <c r="E3">
+        <f>ABS('Evaluated Models'!E4-'Evaluated Models'!E5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LinearSVC</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>ABS('Evaluated Models'!B6-'Evaluated Models'!B7)</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>ABS('Evaluated Models'!C6-'Evaluated Models'!C7)</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <f>ABS('Evaluated Models'!D6-'Evaluated Models'!D7)</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>ABS('Evaluated Models'!E6-'Evaluated Models'!E7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>ABS('Evaluated Models'!B10-'Evaluated Models'!B11)</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>ABS('Evaluated Models'!C10-'Evaluated Models'!C11)</f>
+        <v/>
+      </c>
+      <c r="D5">
+        <f>ABS('Evaluated Models'!D10-'Evaluated Models'!D11)</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>ABS('Evaluated Models'!E10-'Evaluated Models'!E11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="top10" rank="1" priority="4" dxfId="0" bottom="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E5">
+    <cfRule type="top10" rank="1" priority="5" bottom="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="top10" rank="1" priority="3" dxfId="0" bottom="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="top10" rank="1" priority="2" dxfId="0" bottom="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="top10" rank="1" priority="1" dxfId="0" bottom="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>